--- a/data/victor-chevalier-tekken-8-frame-data.xlsx
+++ b/data/victor-chevalier-tekken-8-frame-data.xlsx
@@ -515,10 +515,8 @@
         <v>15</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -561,10 +559,8 @@
         <v>12</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F5" t="n">
+        <v>-2</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -613,10 +609,8 @@
         <v>17</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F7" t="n">
+        <v>3</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -639,10 +633,8 @@
         <v>10</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F8" t="n">
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -665,10 +657,8 @@
         <v>26</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="F9" t="n">
+        <v>18</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -695,10 +685,8 @@
         <v>21</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="F10" t="n">
+        <v>-1</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -743,10 +731,8 @@
         <v>20</v>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F12" t="n">
+        <v>70</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -823,10 +809,8 @@
         <v>12</v>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F15" t="n">
+        <v>-4</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -853,10 +837,8 @@
         <v>16</v>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F16" t="n">
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -901,10 +883,8 @@
         <v>22</v>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F18" t="n">
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
@@ -993,10 +973,8 @@
         <v>19</v>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F22" t="n">
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1063,10 +1041,8 @@
         <v>25</v>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+34</t>
-        </is>
+      <c r="F25" t="n">
+        <v>34</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1141,10 +1117,8 @@
         <v>26</v>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+37</t>
-        </is>
+      <c r="F28" t="n">
+        <v>37</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1189,10 +1163,8 @@
         <v>12</v>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="F30" t="n">
+        <v>2</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1237,10 +1209,8 @@
         <v>25</v>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F32" t="n">
+        <v>21</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1267,10 +1237,8 @@
         <v>18</v>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="F33" t="n">
+        <v>13</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
@@ -1296,14 +1264,9 @@
       <c r="D34" t="n">
         <v>65</v>
       </c>
-      <c r="E34">
-        <f>+2 (-8)</f>
-        <v/>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1330,10 +1293,8 @@
         <v>12</v>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="F35" t="n">
+        <v>-3</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1356,10 +1317,8 @@
         <v>16</v>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="F36" t="n">
+        <v>-3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1386,10 +1345,8 @@
         <v>20</v>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+49</t>
-        </is>
+      <c r="F37" t="n">
+        <v>49</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1434,10 +1391,8 @@
         <v>19</v>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F39" t="n">
+        <v>17</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1464,10 +1419,8 @@
         <v>18</v>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F40" t="n">
+        <v>6</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1516,10 +1469,8 @@
         <v>18</v>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F42" t="n">
+        <v>-2</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -1542,10 +1493,8 @@
         <v>16</v>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="F43" t="n">
+        <v>-3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1572,10 +1521,8 @@
         <v>22</v>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F44" t="n">
+        <v>4</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1624,10 +1571,8 @@
         <v>21</v>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="F46" t="n">
+        <v>2</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1650,10 +1595,8 @@
         <v>19</v>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+40</t>
-        </is>
+      <c r="F47" t="n">
+        <v>40</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -1680,10 +1623,8 @@
         <v>20</v>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F48" t="n">
+        <v>4</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -1728,10 +1669,8 @@
         <v>20</v>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F50" t="n">
+        <v>7</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -1754,10 +1693,8 @@
         <v>15</v>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+31</t>
-        </is>
+      <c r="F51" t="n">
+        <v>31</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -1802,10 +1739,8 @@
         <v>14</v>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="F53" t="n">
+        <v>16</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -1854,10 +1789,8 @@
         <v>32</v>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F55" t="n">
+        <v>17</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -1906,10 +1839,8 @@
         <v>22</v>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F57" t="n">
+        <v>4</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2028,10 +1959,8 @@
         <v>20</v>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="F62" t="n">
+        <v>20</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -2058,10 +1987,8 @@
         <v>14</v>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="F63" t="n">
+        <v>20</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -2176,10 +2103,8 @@
         <v>26</v>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F68" t="n">
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -2202,10 +2127,8 @@
         <v>18</v>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+33</t>
-        </is>
+      <c r="F69" t="n">
+        <v>33</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2232,10 +2155,8 @@
         <v>16</v>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="F70" t="n">
+        <v>16</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2262,10 +2183,8 @@
         <v>16</v>
       </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -2288,10 +2207,8 @@
         <v>23</v>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="F72" t="n">
+        <v>20</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2362,10 +2279,8 @@
         <v>20</v>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="F75" t="n">
+        <v>20</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2392,10 +2307,8 @@
         <v>25</v>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="F76" t="n">
+        <v>15</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2422,10 +2335,8 @@
         <v>20</v>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+20 </t>
-        </is>
+      <c r="F77" t="n">
+        <v>20</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
@@ -2474,10 +2385,8 @@
         <v>23</v>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F79" t="n">
+        <v>8</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -2504,10 +2413,8 @@
         <v>16</v>
       </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="F80" t="n">
+        <v>15</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -2556,10 +2463,8 @@
         <v>17</v>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
+      <c r="F82" t="n">
+        <v>25</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -2582,10 +2487,8 @@
         <v>26</v>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+26</t>
-        </is>
+      <c r="F83" t="n">
+        <v>26</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -2652,10 +2555,8 @@
         <v>20</v>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="F86" t="n">
+        <v>-3</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
@@ -2678,10 +2579,8 @@
         <v>23</v>
       </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
@@ -2732,10 +2631,8 @@
         <v>16</v>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+60</t>
-        </is>
+      <c r="F89" t="n">
+        <v>60</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -2762,10 +2659,8 @@
         <v>12</v>
       </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F90" t="n">
+        <v>-2</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -2792,10 +2687,8 @@
         <v>19</v>
       </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F91" t="n">
+        <v>4</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
@@ -2822,10 +2715,8 @@
         <v>25</v>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="F92" t="n">
+        <v>14</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -2852,10 +2743,8 @@
         <v>12</v>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F93" t="n">
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -2878,10 +2767,8 @@
         <v>13</v>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F94" t="n">
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -2904,10 +2791,8 @@
         <v>12</v>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="F95" t="n">
+        <v>12</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -2934,10 +2819,8 @@
         <v>12</v>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F96" t="n">
+        <v>7</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -2986,10 +2869,8 @@
         <v>18</v>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="F98" t="n">
+        <v>13</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3036,10 +2917,8 @@
         <v>20</v>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F100" t="n">
+        <v>70</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3066,10 +2945,8 @@
         <v>12</v>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F101" t="n">
+        <v>-4</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -3096,10 +2973,8 @@
         <v>18</v>
       </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="F102" t="n">
+        <v>15</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
@@ -3194,10 +3069,8 @@
         <v>12</v>
       </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F106" t="n">
+        <v>-4</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
@@ -3224,10 +3097,8 @@
         <v>25</v>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="F107" t="n">
+        <v>15</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -3250,10 +3121,8 @@
         <v>19</v>
       </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F108" t="n">
+        <v>7</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
@@ -3280,10 +3149,8 @@
         <v>18</v>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F109" t="n">
+        <v>3</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -3306,10 +3173,8 @@
         <v>15</v>
       </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+73</t>
-        </is>
+      <c r="F110" t="n">
+        <v>73</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -3332,10 +3197,8 @@
         <v>15</v>
       </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+53</t>
-        </is>
+      <c r="F111" t="n">
+        <v>53</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -3358,10 +3221,8 @@
         <v>13</v>
       </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F112" t="n">
+        <v>8</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -3384,10 +3245,8 @@
         <v>14</v>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F113" t="n">
+        <v>6</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -3410,10 +3269,8 @@
         <v>15</v>
       </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F114" t="n">
+        <v>6</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -3436,10 +3293,8 @@
         <v>30</v>
       </c>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F115" t="n">
+        <v>17</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
@@ -3466,10 +3321,8 @@
         <v>23</v>
       </c>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="F116" t="n">
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -3540,10 +3393,8 @@
         <v>20</v>
       </c>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="F119" t="n">
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -3570,10 +3421,8 @@
         <v>25</v>
       </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="F120" t="n">
+        <v>15</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
@@ -3600,10 +3449,8 @@
         <v>20</v>
       </c>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+20 </t>
-        </is>
+      <c r="F121" t="n">
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
@@ -3652,10 +3499,8 @@
         <v>23</v>
       </c>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F123" t="n">
+        <v>8</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -3682,10 +3527,8 @@
         <v>16</v>
       </c>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="F124" t="n">
+        <v>15</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -3734,10 +3577,8 @@
         <v>17</v>
       </c>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
+      <c r="F126" t="n">
+        <v>25</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -3760,10 +3601,8 @@
         <v>26</v>
       </c>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+26</t>
-        </is>
+      <c r="F127" t="n">
+        <v>26</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -3830,10 +3669,8 @@
         <v>20</v>
       </c>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="F130" t="n">
+        <v>-3</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -3856,10 +3693,8 @@
         <v>23</v>
       </c>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F131" t="n">
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
@@ -3910,10 +3745,8 @@
         <v>16</v>
       </c>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+60</t>
-        </is>
+      <c r="F133" t="n">
+        <v>60</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
@@ -3940,10 +3773,8 @@
         <v>12</v>
       </c>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F134" t="n">
+        <v>-2</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
@@ -3970,10 +3801,8 @@
         <v>19</v>
       </c>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F135" t="n">
+        <v>4</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
@@ -4000,10 +3829,8 @@
         <v>25</v>
       </c>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="F136" t="n">
+        <v>14</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
@@ -4030,10 +3857,8 @@
         <v>12</v>
       </c>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F137" t="n">
+        <v>1</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -4056,10 +3881,8 @@
         <v>13</v>
       </c>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F138" t="n">
+        <v>1</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -4082,10 +3905,8 @@
         <v>12</v>
       </c>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="F139" t="n">
+        <v>12</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
@@ -4112,10 +3933,8 @@
         <v>12</v>
       </c>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F140" t="n">
+        <v>7</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -4164,10 +3983,8 @@
         <v>18</v>
       </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="F142" t="n">
+        <v>13</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -4214,10 +4031,8 @@
         <v>20</v>
       </c>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F144" t="n">
+        <v>70</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4244,10 +4059,8 @@
         <v>12</v>
       </c>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F145" t="n">
+        <v>-4</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
@@ -4274,10 +4087,8 @@
         <v>18</v>
       </c>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="F146" t="n">
+        <v>15</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
@@ -4372,10 +4183,8 @@
         <v>12</v>
       </c>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F150" t="n">
+        <v>-4</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
@@ -4402,10 +4211,8 @@
         <v>25</v>
       </c>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="F151" t="n">
+        <v>15</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
@@ -4428,10 +4235,8 @@
         <v>19</v>
       </c>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F152" t="n">
+        <v>7</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
@@ -4458,10 +4263,8 @@
         <v>18</v>
       </c>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F153" t="n">
+        <v>3</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -4484,10 +4287,8 @@
         <v>15</v>
       </c>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>+73</t>
-        </is>
+      <c r="F154" t="n">
+        <v>73</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
@@ -4510,10 +4311,8 @@
         <v>15</v>
       </c>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>+53</t>
-        </is>
+      <c r="F155" t="n">
+        <v>53</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -4536,10 +4335,8 @@
         <v>13</v>
       </c>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F156" t="n">
+        <v>8</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -4562,10 +4359,8 @@
         <v>14</v>
       </c>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F157" t="n">
+        <v>6</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -4588,10 +4383,8 @@
         <v>15</v>
       </c>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F158" t="n">
+        <v>6</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
@@ -4614,10 +4407,8 @@
         <v>30</v>
       </c>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F159" t="n">
+        <v>17</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
